--- a/second-order/1899/February1899.xlsx
+++ b/second-order/1899/February1899.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24805"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catherine.ross\Desktop\2nd Order Stations\1899\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11361" documentId="13_ncr:1_{27C50907-8CA0-427B-80D3-FB34EA136DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0279FA9-80B6-4521-BD48-6E7F5C4A54FE}"/>
+  <xr:revisionPtr revIDLastSave="11798" documentId="13_ncr:1_{27C50907-8CA0-427B-80D3-FB34EA136DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{899EA764-2EDB-4592-ACE6-6D026155638E}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11325" tabRatio="832" firstSheet="17" activeTab="19" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11325" tabRatio="832" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Deerness" sheetId="15" r:id="rId1"/>
@@ -46,6 +46,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3351" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="80">
   <si>
     <t>Barometer</t>
   </si>
@@ -202,9 +204,6 @@
     <t>Braemar</t>
   </si>
   <si>
-    <t>39..8</t>
-  </si>
-  <si>
     <t>Laudale</t>
   </si>
   <si>
@@ -286,9 +285,6 @@
     <t>Armagh</t>
   </si>
   <si>
-    <t>26..5</t>
-  </si>
-  <si>
     <t>Markree Castle</t>
   </si>
   <si>
@@ -296,6 +292,9 @@
   </si>
   <si>
     <t>Parsonstown</t>
+  </si>
+  <si>
+    <t>//////////////////////////</t>
   </si>
 </sst>
 </file>
@@ -572,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -631,6 +630,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -661,29 +682,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1002,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4108655-B436-409A-BEA1-C15E2C901F28}">
   <dimension ref="A2:W33"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1016,34 +1018,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="20" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="29"/>
       <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1053,18 +1055,18 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="37"/>
       <c r="T3" s="4"/>
       <c r="V3" s="1"/>
       <c r="W3" s="18"/>
@@ -2447,7 +2449,7 @@
         <v>36</v>
       </c>
       <c r="J23" s="6">
-        <v>54.8</v>
+        <v>43.8</v>
       </c>
       <c r="K23" s="1">
         <v>0.4</v>
@@ -3211,9 +3213,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F58535-F46B-4397-857F-B5B0AFE46BF9}">
-  <dimension ref="A2:W33"/>
+  <dimension ref="A2:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
@@ -3227,34 +3229,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="20" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="29"/>
       <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
@@ -3264,18 +3266,18 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="37"/>
       <c r="T3" s="4"/>
       <c r="V3" s="1"/>
       <c r="W3" s="18"/>
@@ -3353,7 +3355,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1">
         <v>1899</v>
@@ -3407,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T5" s="6">
         <v>1</v>
@@ -3424,7 +3426,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1">
         <v>1899</v>
@@ -3495,7 +3497,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1">
         <v>1899</v>
@@ -3566,7 +3568,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1">
         <v>1899</v>
@@ -3637,7 +3639,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1">
         <v>1899</v>
@@ -3685,7 +3687,7 @@
         <v>91</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R9" s="1">
         <v>1</v>
@@ -3708,7 +3710,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1">
         <v>1899</v>
@@ -3779,7 +3781,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1">
         <v>1899</v>
@@ -3827,7 +3829,7 @@
         <v>92</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R11" s="1">
         <v>2</v>
@@ -3850,7 +3852,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1">
         <v>1899</v>
@@ -3921,7 +3923,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1">
         <v>1899</v>
@@ -3992,7 +3994,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1">
         <v>1899</v>
@@ -4063,7 +4065,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1">
         <v>1899</v>
@@ -4078,7 +4080,7 @@
         <v>29.02</v>
       </c>
       <c r="F15" s="6">
-        <v>29.62</v>
+        <v>28.62</v>
       </c>
       <c r="G15" s="1">
         <v>47.3</v>
@@ -4134,7 +4136,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="1">
         <v>1899</v>
@@ -4182,7 +4184,7 @@
         <v>93</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R16" s="1">
         <v>3</v>
@@ -4205,7 +4207,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1">
         <v>1899</v>
@@ -4253,7 +4255,7 @@
         <v>90</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R17" s="1">
         <v>5</v>
@@ -4276,7 +4278,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1">
         <v>1899</v>
@@ -4330,7 +4332,7 @@
         <v>4</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T18" s="6">
         <v>1</v>
@@ -4347,7 +4349,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1">
         <v>1899</v>
@@ -4418,7 +4420,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1">
         <v>1899</v>
@@ -4472,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T20" s="6">
         <v>1</v>
@@ -4489,7 +4491,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1">
         <v>1899</v>
@@ -4537,13 +4539,13 @@
         <v>87</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R21" s="1">
         <v>1</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T21" s="6">
         <v>1</v>
@@ -4560,7 +4562,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1">
         <v>1899</v>
@@ -4608,7 +4610,7 @@
         <v>96</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R22" s="1">
         <v>1</v>
@@ -4631,7 +4633,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1">
         <v>1899</v>
@@ -4702,7 +4704,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1">
         <v>1899</v>
@@ -4773,7 +4775,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1">
         <v>1899</v>
@@ -4827,7 +4829,7 @@
         <v>3</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T25" s="6">
         <v>3</v>
@@ -4844,7 +4846,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1">
         <v>1899</v>
@@ -4892,13 +4894,13 @@
         <v>63</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R26" s="1">
         <v>1</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T26" s="6">
         <v>1</v>
@@ -4915,7 +4917,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1">
         <v>1899</v>
@@ -4969,7 +4971,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T27" s="6">
         <v>1</v>
@@ -4986,7 +4988,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1">
         <v>1899</v>
@@ -5057,7 +5059,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1">
         <v>1899</v>
@@ -5128,7 +5130,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1">
         <v>1899</v>
@@ -5199,7 +5201,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1">
         <v>1899</v>
@@ -5270,7 +5272,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1">
         <v>1899</v>
@@ -5402,6 +5404,12 @@
       </c>
       <c r="W33" s="13">
         <v>2.153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="E34">
+        <f>SUM(E5:E32)/28</f>
+        <v>29.446785714285713</v>
       </c>
     </row>
   </sheetData>
@@ -5421,10 +5429,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2D65C3-F0FC-43D4-8EDF-7503FE5358F7}">
-  <dimension ref="A2:W33"/>
+  <dimension ref="A2:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5437,34 +5445,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="20" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="29"/>
       <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
@@ -5474,18 +5482,18 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="37"/>
       <c r="T3" s="4"/>
       <c r="V3" s="1"/>
       <c r="W3" s="18"/>
@@ -5563,7 +5571,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1">
         <v>1899</v>
@@ -5634,7 +5642,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1">
         <v>1899</v>
@@ -5705,7 +5713,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1">
         <v>1899</v>
@@ -5776,7 +5784,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1">
         <v>1899</v>
@@ -5847,7 +5855,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1">
         <v>1899</v>
@@ -5918,7 +5926,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1">
         <v>1899</v>
@@ -5989,7 +5997,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1">
         <v>1899</v>
@@ -6060,7 +6068,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1">
         <v>1899</v>
@@ -6131,7 +6139,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1">
         <v>1899</v>
@@ -6202,7 +6210,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1">
         <v>1899</v>
@@ -6273,7 +6281,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1">
         <v>1899</v>
@@ -6344,7 +6352,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1">
         <v>1899</v>
@@ -6415,7 +6423,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>1899</v>
@@ -6486,7 +6494,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1">
         <v>1899</v>
@@ -6557,7 +6565,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="1">
         <v>1899</v>
@@ -6628,7 +6636,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1">
         <v>1899</v>
@@ -6699,7 +6707,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1">
         <v>1899</v>
@@ -6770,7 +6778,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1">
         <v>1899</v>
@@ -6841,7 +6849,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1">
         <v>1899</v>
@@ -6912,7 +6920,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1">
         <v>1899</v>
@@ -6983,7 +6991,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1">
         <v>1899</v>
@@ -7054,7 +7062,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1">
         <v>1899</v>
@@ -7125,7 +7133,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1">
         <v>1899</v>
@@ -7196,7 +7204,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="1">
         <v>1899</v>
@@ -7267,7 +7275,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1">
         <v>1899</v>
@@ -7338,7 +7346,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="1">
         <v>1899</v>
@@ -7409,7 +7417,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1">
         <v>1899</v>
@@ -7480,7 +7488,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="1">
         <v>1899</v>
@@ -7612,6 +7620,12 @@
       </c>
       <c r="W33" s="13">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="F34">
+        <f>SUM(F5:F32)/28</f>
+        <v>29.782857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -7633,8 +7647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD84A6CC-49D4-47FD-9DBF-F07FCE349F1A}">
   <dimension ref="A2:W33"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView topLeftCell="L25" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7647,34 +7661,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="20" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="29"/>
       <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
@@ -7684,18 +7698,18 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="37"/>
       <c r="T3" s="4"/>
       <c r="V3" s="1"/>
       <c r="W3" s="18"/>
@@ -7773,7 +7787,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1">
         <v>1899</v>
@@ -7844,7 +7858,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1">
         <v>1899</v>
@@ -7915,7 +7929,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1">
         <v>1899</v>
@@ -7986,7 +8000,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1">
         <v>1899</v>
@@ -8057,7 +8071,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1">
         <v>1899</v>
@@ -8128,7 +8142,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1">
         <v>1899</v>
@@ -8199,7 +8213,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1">
         <v>1899</v>
@@ -8270,7 +8284,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1">
         <v>1899</v>
@@ -8341,7 +8355,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1">
         <v>1899</v>
@@ -8412,7 +8426,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1">
         <v>1899</v>
@@ -8483,7 +8497,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1">
         <v>1899</v>
@@ -8554,7 +8568,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1">
         <v>1899</v>
@@ -8625,7 +8639,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1">
         <v>1899</v>
@@ -8696,7 +8710,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1">
         <v>1899</v>
@@ -8767,7 +8781,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1">
         <v>1899</v>
@@ -8838,7 +8852,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1">
         <v>1899</v>
@@ -8909,7 +8923,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1">
         <v>1899</v>
@@ -8980,7 +8994,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1">
         <v>1899</v>
@@ -9051,7 +9065,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1">
         <v>1899</v>
@@ -9122,7 +9136,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1">
         <v>1899</v>
@@ -9193,7 +9207,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="1">
         <v>1899</v>
@@ -9264,7 +9278,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1">
         <v>1899</v>
@@ -9335,7 +9349,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1">
         <v>1899</v>
@@ -9406,7 +9420,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1">
         <v>1899</v>
@@ -9477,7 +9491,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1">
         <v>1899</v>
@@ -9548,7 +9562,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1">
         <v>1899</v>
@@ -9619,7 +9633,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="1">
         <v>1899</v>
@@ -9690,7 +9704,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="1">
         <v>1899</v>
@@ -9841,10 +9855,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD0F272-B8A4-46FC-A472-771D73413392}">
-  <dimension ref="A2:W33"/>
+  <dimension ref="A2:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="K15" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9857,34 +9871,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="20" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="29"/>
       <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
@@ -9894,18 +9908,18 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="37"/>
       <c r="T3" s="4"/>
       <c r="V3" s="1"/>
       <c r="W3" s="18"/>
@@ -9983,7 +9997,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1">
         <v>1899</v>
@@ -10054,7 +10068,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1">
         <v>1899</v>
@@ -10125,7 +10139,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1">
         <v>1899</v>
@@ -10196,7 +10210,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1">
         <v>1899</v>
@@ -10267,7 +10281,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1">
         <v>1899</v>
@@ -10338,7 +10352,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1">
         <v>1899</v>
@@ -10409,7 +10423,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="1">
         <v>1899</v>
@@ -10480,7 +10494,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1">
         <v>1899</v>
@@ -10551,7 +10565,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1">
         <v>1899</v>
@@ -10622,7 +10636,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1">
         <v>1899</v>
@@ -10693,7 +10707,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1">
         <v>1899</v>
@@ -10764,7 +10778,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1">
         <v>1899</v>
@@ -10835,7 +10849,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1">
         <v>1899</v>
@@ -10906,7 +10920,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1">
         <v>1899</v>
@@ -10977,7 +10991,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1">
         <v>1899</v>
@@ -11048,7 +11062,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1">
         <v>1899</v>
@@ -11119,7 +11133,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1">
         <v>1899</v>
@@ -11190,7 +11204,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1">
         <v>1899</v>
@@ -11261,7 +11275,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1">
         <v>1899</v>
@@ -11332,7 +11346,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1">
         <v>1899</v>
@@ -11403,7 +11417,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="1">
         <v>1899</v>
@@ -11474,7 +11488,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1">
         <v>1899</v>
@@ -11545,7 +11559,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1">
         <v>1899</v>
@@ -11616,7 +11630,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="1">
         <v>1899</v>
@@ -11687,7 +11701,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1">
         <v>1899</v>
@@ -11758,7 +11772,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1">
         <v>1899</v>
@@ -11829,7 +11843,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1">
         <v>1899</v>
@@ -11900,7 +11914,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="1">
         <v>1899</v>
@@ -12032,6 +12046,16 @@
       </c>
       <c r="W33" s="13">
         <v>4.0670000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="E34">
+        <f>SUM(E5:E32)/28</f>
+        <v>29.238214285714285</v>
+      </c>
+      <c r="F34">
+        <f>SUM(F5:F32)/28</f>
+        <v>29.261785714285711</v>
       </c>
     </row>
   </sheetData>
@@ -12051,9 +12075,9 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F522100-1AF0-43D4-A080-F24B7139868C}">
-  <dimension ref="A2:W33"/>
+  <dimension ref="A2:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -12067,34 +12091,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="20" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="29"/>
       <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
@@ -12104,18 +12128,18 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="37"/>
       <c r="T3" s="4"/>
       <c r="V3" s="1"/>
       <c r="W3" s="18"/>
@@ -12193,7 +12217,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1">
         <v>1899</v>
@@ -12264,7 +12288,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1">
         <v>1899</v>
@@ -12335,7 +12359,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1">
         <v>1899</v>
@@ -12406,7 +12430,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1">
         <v>1899</v>
@@ -12477,7 +12501,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1">
         <v>1899</v>
@@ -12548,7 +12572,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1">
         <v>1899</v>
@@ -12619,7 +12643,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="1">
         <v>1899</v>
@@ -12690,7 +12714,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1">
         <v>1899</v>
@@ -12761,7 +12785,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1">
         <v>1899</v>
@@ -12832,7 +12856,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1">
         <v>1899</v>
@@ -12903,7 +12927,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1">
         <v>1899</v>
@@ -12974,7 +12998,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1">
         <v>1899</v>
@@ -13045,7 +13069,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1">
         <v>1899</v>
@@ -13116,7 +13140,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1">
         <v>1899</v>
@@ -13187,7 +13211,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1">
         <v>1899</v>
@@ -13258,7 +13282,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1">
         <v>1899</v>
@@ -13329,7 +13353,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1">
         <v>1899</v>
@@ -13400,7 +13424,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1">
         <v>1899</v>
@@ -13471,7 +13495,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1">
         <v>1899</v>
@@ -13542,7 +13566,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1">
         <v>1899</v>
@@ -13613,7 +13637,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1">
         <v>1899</v>
@@ -13684,7 +13708,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1">
         <v>1899</v>
@@ -13755,7 +13779,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1">
         <v>1899</v>
@@ -13826,7 +13850,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1">
         <v>1899</v>
@@ -13897,7 +13921,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1">
         <v>1899</v>
@@ -13968,7 +13992,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1">
         <v>1899</v>
@@ -14039,7 +14063,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="1">
         <v>1899</v>
@@ -14110,7 +14134,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="1">
         <v>1899</v>
@@ -14122,7 +14146,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="5">
-        <v>30.49</v>
+        <v>30.59</v>
       </c>
       <c r="F32" s="6">
         <v>30.63</v>
@@ -14242,6 +14266,12 @@
       </c>
       <c r="W33" s="13">
         <v>3.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="E34">
+        <f>SUM(E5:E32)/28</f>
+        <v>29.727142857142859</v>
       </c>
     </row>
   </sheetData>
@@ -14263,8 +14293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42ABBC7C-B157-4A4E-8414-C98E473BD393}">
   <dimension ref="A2:W33"/>
   <sheetViews>
-    <sheetView topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14277,34 +14307,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="20" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="29"/>
       <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
@@ -14314,18 +14344,18 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="37"/>
       <c r="T3" s="4"/>
       <c r="V3" s="1"/>
       <c r="W3" s="18"/>
@@ -14403,7 +14433,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1">
         <v>1899</v>
@@ -14474,7 +14504,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1">
         <v>1899</v>
@@ -14545,7 +14575,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1">
         <v>1899</v>
@@ -14616,7 +14646,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1">
         <v>1899</v>
@@ -14661,7 +14691,7 @@
         <v>72</v>
       </c>
       <c r="P8" s="6">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>32</v>
@@ -14687,7 +14717,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1">
         <v>1899</v>
@@ -14758,7 +14788,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="1">
         <v>1899</v>
@@ -14829,7 +14859,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1">
         <v>1899</v>
@@ -14900,7 +14930,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1">
         <v>1899</v>
@@ -14971,7 +15001,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1">
         <v>1899</v>
@@ -15042,7 +15072,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="1">
         <v>1899</v>
@@ -15113,7 +15143,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1">
         <v>1899</v>
@@ -15184,7 +15214,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1">
         <v>1899</v>
@@ -15255,7 +15285,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1">
         <v>1899</v>
@@ -15326,7 +15356,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>1899</v>
@@ -15397,7 +15427,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1">
         <v>1899</v>
@@ -15468,7 +15498,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="1">
         <v>1899</v>
@@ -15539,7 +15569,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="1">
         <v>1899</v>
@@ -15610,7 +15640,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1">
         <v>1899</v>
@@ -15681,7 +15711,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="1">
         <v>1899</v>
@@ -15752,7 +15782,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1">
         <v>1899</v>
@@ -15823,7 +15853,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1">
         <v>1899</v>
@@ -15894,7 +15924,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="1">
         <v>1899</v>
@@ -15965,7 +15995,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1">
         <v>1899</v>
@@ -16036,7 +16066,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="1">
         <v>1899</v>
@@ -16107,7 +16137,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1">
         <v>1899</v>
@@ -16178,7 +16208,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1">
         <v>1899</v>
@@ -16249,7 +16279,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1">
         <v>1899</v>
@@ -16320,7 +16350,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="1">
         <v>1899</v>
@@ -16473,8 +16503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D9C1B2-8C1C-4225-9D26-AF6DAC2640AF}">
   <dimension ref="A2:W33"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView topLeftCell="N5" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16487,34 +16517,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="20" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="29"/>
       <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
@@ -16524,18 +16554,18 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="37"/>
       <c r="T3" s="4"/>
       <c r="V3" s="1"/>
       <c r="W3" s="18"/>
@@ -16613,7 +16643,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1">
         <v>1899</v>
@@ -16684,7 +16714,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1">
         <v>1899</v>
@@ -16755,7 +16785,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1">
         <v>1899</v>
@@ -16826,7 +16856,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1">
         <v>1899</v>
@@ -16897,7 +16927,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1">
         <v>1899</v>
@@ -16968,7 +16998,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1">
         <v>1899</v>
@@ -17039,7 +17069,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="1">
         <v>1899</v>
@@ -17110,7 +17140,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1">
         <v>1899</v>
@@ -17181,7 +17211,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1">
         <v>1899</v>
@@ -17252,7 +17282,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1">
         <v>1899</v>
@@ -17323,7 +17353,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1">
         <v>1899</v>
@@ -17394,7 +17424,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1">
         <v>1899</v>
@@ -17465,7 +17495,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1">
         <v>1899</v>
@@ -17536,7 +17566,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1">
         <v>1899</v>
@@ -17607,7 +17637,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1">
         <v>1899</v>
@@ -17678,7 +17708,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1">
         <v>1899</v>
@@ -17749,7 +17779,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1">
         <v>1899</v>
@@ -17820,7 +17850,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="1">
         <v>1899</v>
@@ -17891,7 +17921,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1">
         <v>1899</v>
@@ -17962,7 +17992,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1">
         <v>1899</v>
@@ -18033,7 +18063,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1">
         <v>1899</v>
@@ -18104,7 +18134,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="1">
         <v>1899</v>
@@ -18175,7 +18205,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="1">
         <v>1899</v>
@@ -18246,7 +18276,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="1">
         <v>1899</v>
@@ -18317,7 +18347,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="1">
         <v>1899</v>
@@ -18388,7 +18418,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1">
         <v>1899</v>
@@ -18459,7 +18489,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1">
         <v>1899</v>
@@ -18530,7 +18560,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1">
         <v>1899</v>
@@ -18681,10 +18711,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5AAE48-C411-4E25-8B1D-2232EA02C65B}">
-  <dimension ref="A2:W33"/>
+  <dimension ref="A2:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView topLeftCell="M10" workbookViewId="0">
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18697,34 +18727,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="20" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="29"/>
       <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
@@ -18734,18 +18764,18 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="37"/>
       <c r="T3" s="4"/>
       <c r="V3" s="1"/>
       <c r="W3" s="18"/>
@@ -18823,7 +18853,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1">
         <v>1899</v>
@@ -18894,7 +18924,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1">
         <v>1899</v>
@@ -18965,7 +18995,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1">
         <v>1899</v>
@@ -19036,7 +19066,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1">
         <v>1899</v>
@@ -19107,7 +19137,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1">
         <v>1899</v>
@@ -19178,7 +19208,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1">
         <v>1899</v>
@@ -19249,7 +19279,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1">
         <v>1899</v>
@@ -19320,7 +19350,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1">
         <v>1899</v>
@@ -19391,7 +19421,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1">
         <v>1899</v>
@@ -19462,7 +19492,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1">
         <v>1899</v>
@@ -19533,7 +19563,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1">
         <v>1899</v>
@@ -19604,7 +19634,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1">
         <v>1899</v>
@@ -19675,7 +19705,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1">
         <v>1899</v>
@@ -19746,7 +19776,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1">
         <v>1899</v>
@@ -19817,7 +19847,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1">
         <v>1899</v>
@@ -19888,7 +19918,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1">
         <v>1899</v>
@@ -19959,7 +19989,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1">
         <v>1899</v>
@@ -20030,7 +20060,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1">
         <v>1899</v>
@@ -20101,7 +20131,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="1">
         <v>1899</v>
@@ -20172,7 +20202,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1">
         <v>1899</v>
@@ -20243,7 +20273,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1">
         <v>1899</v>
@@ -20314,7 +20344,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1">
         <v>1899</v>
@@ -20385,7 +20415,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1">
         <v>1899</v>
@@ -20408,8 +20438,8 @@
       <c r="H27" s="1">
         <v>41.6</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>77</v>
+      <c r="I27" s="1">
+        <v>26.5</v>
       </c>
       <c r="J27" s="6">
         <v>47.8</v>
@@ -20456,7 +20486,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1">
         <v>1899</v>
@@ -20527,7 +20557,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1">
         <v>1899</v>
@@ -20598,7 +20628,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1">
         <v>1899</v>
@@ -20669,7 +20699,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="1">
         <v>1899</v>
@@ -20740,7 +20770,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1">
         <v>1899</v>
@@ -20872,6 +20902,16 @@
       </c>
       <c r="W33" s="13">
         <v>2.6760000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="E34">
+        <f>SUM(E5:E32)/28</f>
+        <v>29.500357142857148</v>
+      </c>
+      <c r="F34">
+        <f>SUM(F5:F32)/28</f>
+        <v>29.513571428571428</v>
       </c>
     </row>
   </sheetData>
@@ -20893,7 +20933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413A142-C323-471B-8DE8-71C83ABC936E}">
   <dimension ref="A2:W33"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="M10" workbookViewId="0">
       <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
@@ -20907,34 +20947,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="20" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="29"/>
       <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
@@ -20944,18 +20984,18 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="37"/>
       <c r="T3" s="4"/>
       <c r="V3" s="1"/>
       <c r="W3" s="18"/>
@@ -21033,7 +21073,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1">
         <v>1899</v>
@@ -21104,7 +21144,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1">
         <v>1899</v>
@@ -21175,7 +21215,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1">
         <v>1899</v>
@@ -21246,7 +21286,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1">
         <v>1899</v>
@@ -21317,7 +21357,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1">
         <v>1899</v>
@@ -21338,7 +21378,7 @@
         <v>41.8</v>
       </c>
       <c r="H9" s="1">
-        <v>406</v>
+        <v>40.6</v>
       </c>
       <c r="I9" s="1">
         <v>39.299999999999997</v>
@@ -21388,7 +21428,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10" s="1">
         <v>1899</v>
@@ -21459,7 +21499,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1">
         <v>1899</v>
@@ -21530,7 +21570,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1">
         <v>1899</v>
@@ -21601,7 +21641,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1">
         <v>1899</v>
@@ -21672,7 +21712,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1">
         <v>1899</v>
@@ -21743,7 +21783,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B15" s="1">
         <v>1899</v>
@@ -21814,7 +21854,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="1">
         <v>1899</v>
@@ -21885,7 +21925,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1">
         <v>1899</v>
@@ -21956,7 +21996,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1">
         <v>1899</v>
@@ -22027,7 +22067,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1">
         <v>1899</v>
@@ -22098,7 +22138,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1">
         <v>1899</v>
@@ -22169,7 +22209,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1">
         <v>1899</v>
@@ -22240,7 +22280,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1">
         <v>1899</v>
@@ -22311,7 +22351,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1">
         <v>1899</v>
@@ -22382,7 +22422,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B24" s="1">
         <v>1899</v>
@@ -22453,7 +22493,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1">
         <v>1899</v>
@@ -22524,7 +22564,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1">
         <v>1899</v>
@@ -22595,7 +22635,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B27" s="1">
         <v>1899</v>
@@ -22666,7 +22706,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1">
         <v>1899</v>
@@ -22737,7 +22777,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1">
         <v>1899</v>
@@ -22808,7 +22848,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1">
         <v>1899</v>
@@ -22879,7 +22919,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1">
         <v>1899</v>
@@ -22950,7 +22990,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B32" s="1">
         <v>1899</v>
@@ -23101,9 +23141,9 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBA7423-C2C7-4634-AC7C-BDA41601DD7D}">
-  <dimension ref="A2:W33"/>
+  <dimension ref="A2:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="P15" workbookViewId="0">
       <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
@@ -23117,34 +23157,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="20" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="29"/>
       <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
@@ -23154,18 +23194,18 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="37"/>
       <c r="T3" s="4"/>
       <c r="V3" s="1"/>
       <c r="W3" s="18"/>
@@ -23243,7 +23283,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1">
         <v>1899</v>
@@ -23314,7 +23354,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1">
         <v>1899</v>
@@ -23385,7 +23425,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1">
         <v>1899</v>
@@ -23456,7 +23496,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1">
         <v>1899</v>
@@ -23527,7 +23567,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1">
         <v>1899</v>
@@ -23598,7 +23638,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1">
         <v>1899</v>
@@ -23669,7 +23709,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1">
         <v>1899</v>
@@ -23740,7 +23780,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1">
         <v>1899</v>
@@ -23811,7 +23851,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1">
         <v>1899</v>
@@ -23882,7 +23922,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1">
         <v>1899</v>
@@ -23953,7 +23993,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1">
         <v>1899</v>
@@ -24024,7 +24064,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1">
         <v>1899</v>
@@ -24095,7 +24135,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1">
         <v>1899</v>
@@ -24166,7 +24206,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1">
         <v>1899</v>
@@ -24237,7 +24277,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1">
         <v>1899</v>
@@ -24308,7 +24348,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1">
         <v>1899</v>
@@ -24379,7 +24419,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1">
         <v>1899</v>
@@ -24450,7 +24490,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1">
         <v>1899</v>
@@ -24521,7 +24561,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B23" s="1">
         <v>1899</v>
@@ -24592,7 +24632,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1">
         <v>1899</v>
@@ -24663,7 +24703,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1">
         <v>1899</v>
@@ -24734,7 +24774,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1">
         <v>1899</v>
@@ -24805,7 +24845,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1">
         <v>1899</v>
@@ -24876,7 +24916,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B28" s="1">
         <v>1899</v>
@@ -24947,7 +24987,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1">
         <v>1899</v>
@@ -25018,7 +25058,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1">
         <v>1899</v>
@@ -25089,7 +25129,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1">
         <v>1899</v>
@@ -25160,7 +25200,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1">
         <v>1899</v>
@@ -25292,6 +25332,16 @@
       </c>
       <c r="W33" s="13">
         <v>1.405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="E34">
+        <f>SUM(E5:E32)/28</f>
+        <v>29.580714285714286</v>
+      </c>
+      <c r="F34">
+        <f>SUM(F5:F32)/28</f>
+        <v>29.602857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -25311,10 +25361,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB82F61C-05AA-4FA3-BD74-74225C388CDC}">
-  <dimension ref="A2:W33"/>
+  <dimension ref="A2:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="K21" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25327,34 +25377,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="20" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="29"/>
       <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
@@ -25364,18 +25414,18 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="37"/>
       <c r="T3" s="4"/>
       <c r="V3" s="1"/>
       <c r="W3" s="18"/>
@@ -27502,6 +27552,16 @@
       </c>
       <c r="W33" s="13">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="E34">
+        <f>SUM(E5:E32)/28</f>
+        <v>29.726785714285715</v>
+      </c>
+      <c r="F34">
+        <f>SUM(F5:F32)/28</f>
+        <v>29.728214285714284</v>
       </c>
     </row>
   </sheetData>
@@ -27521,10 +27581,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0278F3C-D8F2-4AEA-9D02-7DEF220B388F}">
-  <dimension ref="A2:X36"/>
+  <dimension ref="A2:AF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27537,34 +27597,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="20" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="29"/>
       <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
@@ -27574,18 +27634,18 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="37"/>
       <c r="T3" s="4"/>
       <c r="V3" s="1"/>
       <c r="W3" s="18"/>
@@ -27663,7 +27723,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1">
         <v>1899</v>
@@ -27734,7 +27794,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1">
         <v>1899</v>
@@ -27805,7 +27865,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1">
         <v>1899</v>
@@ -27876,7 +27936,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1">
         <v>1899</v>
@@ -27947,7 +28007,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1">
         <v>1899</v>
@@ -28018,7 +28078,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1">
         <v>1899</v>
@@ -28089,7 +28149,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1">
         <v>1899</v>
@@ -28160,7 +28220,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B12" s="1">
         <v>1899</v>
@@ -28231,7 +28291,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B13" s="1">
         <v>1899</v>
@@ -28302,7 +28362,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1">
         <v>1899</v>
@@ -28373,7 +28433,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1">
         <v>1899</v>
@@ -28444,7 +28504,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1">
         <v>1899</v>
@@ -28515,7 +28575,7 @@
     </row>
     <row r="17" spans="1:24" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17" s="1">
         <v>1899</v>
@@ -28586,7 +28646,7 @@
     </row>
     <row r="18" spans="1:24" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1">
         <v>1899</v>
@@ -28657,7 +28717,7 @@
     </row>
     <row r="19" spans="1:24" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1">
         <v>1899</v>
@@ -28728,7 +28788,7 @@
     </row>
     <row r="20" spans="1:24" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1">
         <v>1899</v>
@@ -28799,7 +28859,7 @@
     </row>
     <row r="21" spans="1:24" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1">
         <v>1899</v>
@@ -28870,7 +28930,7 @@
     </row>
     <row r="22" spans="1:24" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" s="1">
         <v>1899</v>
@@ -28941,7 +29001,7 @@
     </row>
     <row r="23" spans="1:24" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B23" s="1">
         <v>1899</v>
@@ -29012,7 +29072,7 @@
     </row>
     <row r="24" spans="1:24" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1">
         <v>1899</v>
@@ -29083,7 +29143,7 @@
     </row>
     <row r="25" spans="1:24" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B25" s="1">
         <v>1899</v>
@@ -29154,7 +29214,7 @@
     </row>
     <row r="26" spans="1:24" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1">
         <v>1899</v>
@@ -29225,7 +29285,7 @@
     </row>
     <row r="27" spans="1:24" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B27" s="1">
         <v>1899</v>
@@ -29296,7 +29356,7 @@
     </row>
     <row r="28" spans="1:24" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B28" s="1">
         <v>1899</v>
@@ -29367,7 +29427,7 @@
     </row>
     <row r="29" spans="1:24" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B29" s="1">
         <v>1899</v>
@@ -29438,7 +29498,7 @@
     </row>
     <row r="30" spans="1:24" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B30" s="1">
         <v>1899</v>
@@ -29509,7 +29569,7 @@
     </row>
     <row r="31" spans="1:24" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B31" s="1">
         <v>1899</v>
@@ -29580,9 +29640,9 @@
     </row>
     <row r="32" spans="1:24" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="30">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1">
         <v>1899</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -29591,132 +29651,145 @@
       <c r="D32" s="1">
         <v>28</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="23">
         <v>30.4</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="1">
         <v>30.46</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32" s="23">
         <v>38.6</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="1">
         <v>39.799999999999997</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="1">
         <v>31.8</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="1">
         <v>55.2</v>
       </c>
-      <c r="K32" s="34">
+      <c r="K32" s="23">
         <v>1.6</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32" s="1">
         <v>0.9</v>
       </c>
-      <c r="M32" s="34">
+      <c r="M32" s="23">
         <v>0.20300000000000001</v>
       </c>
-      <c r="N32" s="30">
+      <c r="N32" s="1">
         <v>0.22700000000000001</v>
       </c>
-      <c r="O32" s="34">
+      <c r="O32" s="23">
         <v>87</v>
       </c>
-      <c r="P32" s="30">
+      <c r="P32" s="1">
         <v>93</v>
       </c>
-      <c r="Q32" s="34" t="s">
+      <c r="Q32" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="R32" s="30">
-        <v>1</v>
-      </c>
-      <c r="S32" s="30" t="s">
+      <c r="R32" s="1">
+        <v>1</v>
+      </c>
+      <c r="S32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T32" s="30">
-        <v>1</v>
-      </c>
-      <c r="U32" s="34">
+      <c r="T32" s="1">
+        <v>1</v>
+      </c>
+      <c r="U32" s="23">
         <v>7</v>
       </c>
-      <c r="V32" s="30">
+      <c r="V32" s="1">
         <v>2</v>
       </c>
-      <c r="W32" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="X32" s="34"/>
-    </row>
-    <row r="33" spans="1:23" s="1" customFormat="1">
+      <c r="W32" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="X32" s="23"/>
+    </row>
+    <row r="33" spans="1:32" s="1" customFormat="1">
       <c r="A33" s="10"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="24">
         <v>29.513000000000002</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="25">
         <v>29.524000000000001</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="26">
         <v>41.2</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H33" s="24">
         <v>41.4</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="24">
         <v>36.5</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="25">
         <v>48.3</v>
       </c>
-      <c r="K33" s="37">
-        <v>1</v>
-      </c>
-      <c r="L33" s="36">
-        <v>1</v>
-      </c>
-      <c r="M33" s="35">
+      <c r="K33" s="26">
+        <v>1</v>
+      </c>
+      <c r="L33" s="25">
+        <v>1</v>
+      </c>
+      <c r="M33" s="24">
         <v>0.24299999999999999</v>
       </c>
-      <c r="N33" s="35">
+      <c r="N33" s="24">
         <v>0.24399999999999999</v>
       </c>
-      <c r="O33" s="37">
+      <c r="O33" s="26">
         <v>92.1</v>
       </c>
-      <c r="P33" s="36">
+      <c r="P33" s="25">
         <v>92.3</v>
       </c>
-      <c r="Q33" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="R33" s="35">
-        <v>1</v>
-      </c>
-      <c r="S33" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="T33" s="36">
+      <c r="Q33" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="R33" s="24">
+        <v>1</v>
+      </c>
+      <c r="S33" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="T33" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U33" s="37">
+      <c r="U33" s="26">
         <v>7.6</v>
       </c>
-      <c r="V33" s="36">
+      <c r="V33" s="25">
         <v>6.5</v>
       </c>
-      <c r="W33" s="38">
+      <c r="W33" s="27">
         <v>2.2829999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
-      <c r="E36" s="33"/>
+    <row r="34" spans="1:32">
+      <c r="E34">
+        <f>SUM(E5:E32)/28</f>
+        <v>29.514285714285716</v>
+      </c>
+      <c r="F34">
+        <f>SUM(F5:F32)/28</f>
+        <v>29.525000000000002</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32">
+      <c r="E36" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -29736,11 +29809,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CBB8FD-655A-4863-88F4-7CCF8E717079}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:W33"/>
+  <dimension ref="A2:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W34" sqref="W34"/>
+      <pane ySplit="3" topLeftCell="B31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -29760,34 +29833,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="20" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="29"/>
       <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
@@ -29797,18 +29870,18 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="37"/>
       <c r="T3" s="4"/>
       <c r="V3" s="1"/>
       <c r="W3" s="18"/>
@@ -30542,8 +30615,8 @@
       <c r="F14" s="6">
         <v>27.86</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>49</v>
+      <c r="G14" s="1">
+        <v>39.799999999999997</v>
       </c>
       <c r="H14" s="1">
         <v>43.6</v>
@@ -31936,6 +32009,30 @@
       <c r="W33" s="13">
         <v>1.96</v>
       </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="E34">
+        <f>SUM(E5:E32)/28</f>
+        <v>28.578214285714292</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -31958,7 +32055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85204B69-BD73-463D-846C-48564885D419}">
   <dimension ref="A2:W33"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
@@ -31972,34 +32069,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="20" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="29"/>
       <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
@@ -32009,18 +32106,18 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="37"/>
       <c r="T3" s="4"/>
       <c r="V3" s="1"/>
       <c r="W3" s="18"/>
@@ -32098,7 +32195,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1">
         <v>1899</v>
@@ -32169,7 +32266,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1">
         <v>1899</v>
@@ -32240,7 +32337,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1">
         <v>1899</v>
@@ -32311,7 +32408,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1">
         <v>1899</v>
@@ -32382,7 +32479,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1">
         <v>1899</v>
@@ -32453,7 +32550,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1">
         <v>1899</v>
@@ -32524,7 +32621,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1">
         <v>1899</v>
@@ -32595,7 +32692,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1">
         <v>1899</v>
@@ -32666,7 +32763,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1">
         <v>1899</v>
@@ -32737,7 +32834,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1">
         <v>1899</v>
@@ -32808,7 +32905,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1">
         <v>1899</v>
@@ -32879,7 +32976,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>1899</v>
@@ -32950,7 +33047,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1">
         <v>1899</v>
@@ -33021,7 +33118,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1">
         <v>1899</v>
@@ -33092,7 +33189,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1">
         <v>1899</v>
@@ -33163,7 +33260,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1">
         <v>1899</v>
@@ -33234,7 +33331,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1">
         <v>1899</v>
@@ -33305,7 +33402,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1">
         <v>1899</v>
@@ -33376,7 +33473,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1">
         <v>1899</v>
@@ -33447,7 +33544,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1">
         <v>1899</v>
@@ -33518,7 +33615,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1">
         <v>1899</v>
@@ -33589,7 +33686,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1">
         <v>1899</v>
@@ -33660,7 +33757,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1">
         <v>1899</v>
@@ -33731,7 +33828,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1">
         <v>1899</v>
@@ -33802,7 +33899,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1">
         <v>1899</v>
@@ -33873,7 +33970,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1">
         <v>1899</v>
@@ -33944,7 +34041,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1">
         <v>1899</v>
@@ -34015,7 +34112,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1">
         <v>1899</v>
@@ -34166,10 +34263,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8320C5D-44A6-4787-84A6-B2499FADF3C6}">
-  <dimension ref="A2:W33"/>
+  <dimension ref="A2:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView topLeftCell="N19" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34182,34 +34279,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="20" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="29"/>
       <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
@@ -34219,18 +34316,18 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="37"/>
       <c r="T3" s="4"/>
       <c r="V3" s="1"/>
       <c r="W3" s="18"/>
@@ -34308,7 +34405,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1">
         <v>1899</v>
@@ -34379,7 +34476,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1">
         <v>1899</v>
@@ -34450,7 +34547,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1">
         <v>1899</v>
@@ -34521,7 +34618,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1">
         <v>1899</v>
@@ -34592,7 +34689,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1">
         <v>1899</v>
@@ -34607,7 +34704,7 @@
         <v>29.5</v>
       </c>
       <c r="F9" s="6">
-        <v>20.69</v>
+        <v>29.69</v>
       </c>
       <c r="G9" s="1">
         <v>31.9</v>
@@ -34663,7 +34760,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1">
         <v>1899</v>
@@ -34734,7 +34831,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1">
         <v>1899</v>
@@ -34805,7 +34902,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1">
         <v>1899</v>
@@ -34876,7 +34973,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1">
         <v>1899</v>
@@ -34947,7 +35044,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1">
         <v>1899</v>
@@ -35018,7 +35115,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1">
         <v>1899</v>
@@ -35089,7 +35186,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1">
         <v>1899</v>
@@ -35160,7 +35257,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1">
         <v>1899</v>
@@ -35231,7 +35328,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1">
         <v>1899</v>
@@ -35302,7 +35399,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1">
         <v>1899</v>
@@ -35373,7 +35470,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1">
         <v>1899</v>
@@ -35444,7 +35541,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1">
         <v>1899</v>
@@ -35515,7 +35612,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1">
         <v>1899</v>
@@ -35586,7 +35683,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1">
         <v>1899</v>
@@ -35657,7 +35754,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1">
         <v>1899</v>
@@ -35728,7 +35825,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1">
         <v>1899</v>
@@ -35799,7 +35896,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1">
         <v>1899</v>
@@ -35870,7 +35967,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1">
         <v>1899</v>
@@ -35941,7 +36038,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1">
         <v>1899</v>
@@ -36012,7 +36109,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1">
         <v>1899</v>
@@ -36083,7 +36180,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1">
         <v>1899</v>
@@ -36154,7 +36251,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1">
         <v>1899</v>
@@ -36225,7 +36322,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1">
         <v>1899</v>
@@ -36357,6 +36454,16 @@
       </c>
       <c r="W33" s="13">
         <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="O34">
+        <f>SUM(O5:O32)/28</f>
+        <v>90.178571428571431</v>
+      </c>
+      <c r="P34">
+        <f>SUM(P5:P32)/28</f>
+        <v>90.214285714285708</v>
       </c>
     </row>
   </sheetData>
@@ -36376,10 +36483,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D07B89-795F-47D1-B9D9-3952301305F5}">
-  <dimension ref="A2:W33"/>
+  <dimension ref="A2:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34:M35"/>
+    <sheetView topLeftCell="L20" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36392,34 +36499,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="20" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="29"/>
       <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
@@ -36429,18 +36536,18 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="37"/>
       <c r="T3" s="4"/>
       <c r="V3" s="1"/>
       <c r="W3" s="18"/>
@@ -36518,7 +36625,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1">
         <v>1899</v>
@@ -36589,7 +36696,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1">
         <v>1899</v>
@@ -36660,7 +36767,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1">
         <v>1899</v>
@@ -36731,7 +36838,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1">
         <v>1899</v>
@@ -36802,7 +36909,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1">
         <v>1899</v>
@@ -36873,7 +36980,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1">
         <v>1899</v>
@@ -36944,7 +37051,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1">
         <v>1899</v>
@@ -37015,7 +37122,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1">
         <v>1899</v>
@@ -37086,7 +37193,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1">
         <v>1899</v>
@@ -37157,7 +37264,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1">
         <v>1899</v>
@@ -37228,7 +37335,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1">
         <v>1899</v>
@@ -37299,7 +37406,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1">
         <v>1899</v>
@@ -37370,7 +37477,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1">
         <v>1899</v>
@@ -37441,7 +37548,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>1899</v>
@@ -37512,7 +37619,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1">
         <v>1899</v>
@@ -37583,7 +37690,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1">
         <v>1899</v>
@@ -37654,7 +37761,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1">
         <v>1899</v>
@@ -37725,7 +37832,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1">
         <v>1899</v>
@@ -37796,7 +37903,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1">
         <v>1899</v>
@@ -37867,7 +37974,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>1899</v>
@@ -37938,7 +38045,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1">
         <v>1899</v>
@@ -38009,7 +38116,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1">
         <v>1899</v>
@@ -38080,7 +38187,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1">
         <v>1899</v>
@@ -38151,7 +38258,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1">
         <v>1899</v>
@@ -38222,7 +38329,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1">
         <v>1899</v>
@@ -38293,7 +38400,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1">
         <v>1899</v>
@@ -38364,7 +38471,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1">
         <v>1899</v>
@@ -38435,7 +38542,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1">
         <v>1899</v>
@@ -38567,6 +38674,12 @@
       </c>
       <c r="W33" s="13">
         <v>2.2679999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="F34">
+        <f>SUM(F5:F32)/28</f>
+        <v>29.57321428571429</v>
       </c>
     </row>
   </sheetData>
@@ -38588,8 +38701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3123BD-0C11-44C5-98B9-64CC39BFEE8C}">
   <dimension ref="A2:W33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38602,34 +38715,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="20" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="29"/>
       <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
@@ -38639,18 +38752,18 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="37"/>
       <c r="T3" s="4"/>
       <c r="V3" s="1"/>
       <c r="W3" s="18"/>
@@ -38728,7 +38841,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1">
         <v>1899</v>
@@ -38799,7 +38912,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1">
         <v>1899</v>
@@ -38870,7 +38983,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1">
         <v>1899</v>
@@ -38941,7 +39054,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1">
         <v>1899</v>
@@ -38956,7 +39069,7 @@
         <v>29.4</v>
       </c>
       <c r="F8" s="6">
-        <v>20.2</v>
+        <v>29.2</v>
       </c>
       <c r="G8" s="1">
         <v>20.9</v>
@@ -39012,7 +39125,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1">
         <v>1899</v>
@@ -39083,7 +39196,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1">
         <v>1899</v>
@@ -39154,7 +39267,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1">
         <v>1899</v>
@@ -39225,7 +39338,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1">
         <v>1899</v>
@@ -39296,7 +39409,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1">
         <v>1899</v>
@@ -39367,7 +39480,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1">
         <v>1899</v>
@@ -39438,7 +39551,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1">
         <v>1899</v>
@@ -39509,7 +39622,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1">
         <v>1899</v>
@@ -39580,7 +39693,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1">
         <v>1899</v>
@@ -39651,7 +39764,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1">
         <v>1899</v>
@@ -39722,7 +39835,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1">
         <v>1899</v>
@@ -39793,7 +39906,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1">
         <v>1899</v>
@@ -39864,7 +39977,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1">
         <v>1899</v>
@@ -39935,7 +40048,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1">
         <v>1899</v>
@@ -40006,7 +40119,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1">
         <v>1899</v>
@@ -40077,7 +40190,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1">
         <v>1899</v>
@@ -40148,7 +40261,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1">
         <v>1899</v>
@@ -40219,7 +40332,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1">
         <v>1899</v>
@@ -40290,7 +40403,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1">
         <v>1899</v>
@@ -40361,7 +40474,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1">
         <v>1899</v>
@@ -40432,7 +40545,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1">
         <v>1899</v>
@@ -40503,7 +40616,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1">
         <v>1899</v>
@@ -40574,7 +40687,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1">
         <v>1899</v>
@@ -40645,7 +40758,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1">
         <v>1899</v>
@@ -40796,10 +40909,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2E6BE9-1CB1-46BB-B103-F378C28219E9}">
-  <dimension ref="A2:W33"/>
+  <dimension ref="A2:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40812,34 +40925,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="20" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="29"/>
       <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
@@ -40849,18 +40962,18 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="37"/>
       <c r="T3" s="4"/>
       <c r="V3" s="1"/>
       <c r="W3" s="18"/>
@@ -40938,7 +41051,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1">
         <v>1899</v>
@@ -41009,7 +41122,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1">
         <v>1899</v>
@@ -41080,7 +41193,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1">
         <v>1899</v>
@@ -41151,7 +41264,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1">
         <v>1899</v>
@@ -41222,7 +41335,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1">
         <v>1899</v>
@@ -41293,7 +41406,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1">
         <v>1899</v>
@@ -41364,7 +41477,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
         <v>1899</v>
@@ -41435,7 +41548,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1">
         <v>1899</v>
@@ -41506,7 +41619,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1">
         <v>1899</v>
@@ -41577,7 +41690,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1">
         <v>1899</v>
@@ -41648,7 +41761,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1">
         <v>1899</v>
@@ -41719,7 +41832,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1">
         <v>1899</v>
@@ -41790,7 +41903,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1">
         <v>1899</v>
@@ -41861,7 +41974,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1">
         <v>1899</v>
@@ -41932,7 +42045,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1">
         <v>1899</v>
@@ -42003,7 +42116,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1">
         <v>1899</v>
@@ -42074,7 +42187,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1">
         <v>1899</v>
@@ -42145,7 +42258,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1">
         <v>1899</v>
@@ -42216,7 +42329,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1">
         <v>1899</v>
@@ -42287,7 +42400,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1">
         <v>1899</v>
@@ -42358,7 +42471,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
         <v>1899</v>
@@ -42429,7 +42542,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1">
         <v>1899</v>
@@ -42500,7 +42613,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1">
         <v>1899</v>
@@ -42571,7 +42684,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1">
         <v>1899</v>
@@ -42642,7 +42755,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1">
         <v>1899</v>
@@ -42713,7 +42826,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1">
         <v>1899</v>
@@ -42784,7 +42897,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1">
         <v>1899</v>
@@ -42855,7 +42968,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1">
         <v>1899</v>
@@ -42987,6 +43100,20 @@
       </c>
       <c r="W33" s="13">
         <v>1.115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="E34">
+        <f>SUM(E5:E32)/28</f>
+        <v>29.618214285714295</v>
+      </c>
+      <c r="F34">
+        <f>SUM(F5:F32)/28</f>
+        <v>29.6325</v>
+      </c>
+      <c r="I34">
+        <f>SUM(I5:I32)/28</f>
+        <v>35.335714285714289</v>
       </c>
     </row>
   </sheetData>
@@ -43006,10 +43133,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0FE9D5-A80F-41C9-AEC8-6E2C403BE377}">
-  <dimension ref="A2:W33"/>
+  <dimension ref="A2:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="L20" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43022,34 +43149,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="20" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="29"/>
       <c r="W2" s="7" t="s">
         <v>5</v>
       </c>
@@ -43059,18 +43186,18 @@
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="37"/>
       <c r="T3" s="4"/>
       <c r="V3" s="1"/>
       <c r="W3" s="18"/>
@@ -43148,7 +43275,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1">
         <v>1899</v>
@@ -43219,7 +43346,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1">
         <v>1899</v>
@@ -43290,7 +43417,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1">
         <v>1899</v>
@@ -43361,7 +43488,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1">
         <v>1899</v>
@@ -43424,15 +43551,15 @@
         <v>8</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W8" s="9">
-        <v>0.31</v>
+        <v>3.1E-2</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1">
         <v>1899</v>
@@ -43489,7 +43616,7 @@
         <v>43</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U9" s="1">
         <v>9</v>
@@ -43503,7 +43630,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1">
         <v>1899</v>
@@ -43560,7 +43687,7 @@
         <v>33</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U10" s="1">
         <v>10</v>
@@ -43574,7 +43701,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1">
         <v>1899</v>
@@ -43645,7 +43772,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1">
         <v>1899</v>
@@ -43716,7 +43843,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1">
         <v>1899</v>
@@ -43773,7 +43900,7 @@
         <v>39</v>
       </c>
       <c r="T13" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U13" s="1">
         <v>10</v>
@@ -43787,7 +43914,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1">
         <v>1899</v>
@@ -43837,14 +43964,14 @@
       <c r="Q14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R14" s="19" t="s">
-        <v>59</v>
+      <c r="R14" s="38" t="s">
+        <v>58</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T14" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U14" s="1">
         <v>10</v>
@@ -43858,7 +43985,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1">
         <v>1899</v>
@@ -43908,8 +44035,8 @@
       <c r="Q15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="19" t="s">
-        <v>59</v>
+      <c r="R15" s="38" t="s">
+        <v>58</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>33</v>
@@ -43929,7 +44056,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1">
         <v>1899</v>
@@ -43979,7 +44106,7 @@
       <c r="Q16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="39">
         <v>3</v>
       </c>
       <c r="S16" s="1" t="s">
@@ -44000,7 +44127,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1">
         <v>1899</v>
@@ -44050,8 +44177,8 @@
       <c r="Q17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R17" s="19" t="s">
-        <v>60</v>
+      <c r="R17" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>35</v>
@@ -44071,7 +44198,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1">
         <v>1899</v>
@@ -44142,7 +44269,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1">
         <v>1899</v>
@@ -44213,7 +44340,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1">
         <v>1899</v>
@@ -44270,7 +44397,7 @@
         <v>32</v>
       </c>
       <c r="T20" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U20" s="1">
         <v>10</v>
@@ -44284,7 +44411,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1">
         <v>1899</v>
@@ -44355,7 +44482,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1">
         <v>1899</v>
@@ -44426,7 +44553,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1">
         <v>1899</v>
@@ -44497,7 +44624,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="1">
         <v>1899</v>
@@ -44547,14 +44674,14 @@
       <c r="Q24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R24" s="19" t="s">
-        <v>61</v>
+      <c r="R24" s="38" t="s">
+        <v>60</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T24" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U24" s="1">
         <v>9</v>
@@ -44568,7 +44695,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1">
         <v>1899</v>
@@ -44639,7 +44766,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1">
         <v>1899</v>
@@ -44710,7 +44837,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="1">
         <v>1899</v>
@@ -44781,7 +44908,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1">
         <v>1899</v>
@@ -44852,7 +44979,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1">
         <v>1899</v>
@@ -44923,7 +45050,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1">
         <v>1899</v>
@@ -44994,7 +45121,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1">
         <v>1899</v>
@@ -45065,7 +45192,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="1">
         <v>1899</v>
@@ -45197,6 +45324,12 @@
       </c>
       <c r="W33" s="13">
         <v>3.0230000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="F34">
+        <f>SUM(F5:F32)/28</f>
+        <v>29.641785714285714</v>
       </c>
     </row>
   </sheetData>
@@ -45215,8 +45348,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a11f18feb37c278a512788b2e5a06b2f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d97308c79b2bb5835a55e257627f43a5" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a4f56144ecba6ff6a413504c0ec2b8c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dcae21ac380e060fa17aa32c946feec" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
     <xsd:import namespace="502a79df-4f52-4757-ac2f-753e065f4c93"/>
@@ -45248,6 +45390,8 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -45346,6 +45490,16 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="29" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="30" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="31" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -45515,16 +45669,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-38457</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-38457</Url>
+      <Description>H7Q62YT2XCZT-908671883-38457</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -45574,38 +45739,18 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-38457</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-38457</Url>
-      <Description>H7Q62YT2XCZT-908671883-38457</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AADE0D56-6F04-44DF-AE1B-D9F50FA7A622}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30AEBC69-95D9-4A05-8EB8-8273651D386A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{641D9D46-8EF5-4B5F-B4AD-A4CD0C2BC460}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{641D9D46-8EF5-4B5F-B4AD-A4CD0C2BC460}"/>
 </file>